--- a/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-8-2023.xlsx
+++ b/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-8-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>NUC</t>
   </si>
@@ -41,31 +41,58 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Mediacion</t>
+    <t>Enviadas a Litigacion</t>
   </si>
   <si>
     <t>No Detenido</t>
   </si>
   <si>
-    <t>Unidad de Atención Temprana Penal Lázaro Cárdenas I</t>
+    <t>Unidad de Investigación Coahuayana</t>
   </si>
   <si>
-    <t>LAZARO CARDENAS</t>
+    <t>COALCOMAN</t>
   </si>
   <si>
-    <t>Aaron Sanchez Esquivel</t>
+    <t>Rafael Jacinto Reyes</t>
   </si>
   <si>
-    <t>Daniel Bermudez Rivera</t>
+    <t>Mediacion</t>
   </si>
   <si>
-    <t>JESSICA PINEDA PAZ</t>
+    <t>Ricardo Talavera Rivera</t>
   </si>
   <si>
-    <t>Unidad de Investigación Lázaro Cárdenas</t>
+    <t>Abierto/Reiniciado</t>
   </si>
   <si>
-    <t>Adriana Sixtos Calvillo</t>
+    <t>Archivo Temporal</t>
+  </si>
+  <si>
+    <t>No Ejercicio de la accion penal</t>
+  </si>
+  <si>
+    <t>Unidad de Investigación Coalcomán</t>
+  </si>
+  <si>
+    <t>Jhony Canales Maldonado</t>
+  </si>
+  <si>
+    <t>CESAR ULISES  GARCIA CASTELLANOS</t>
+  </si>
+  <si>
+    <t>Unidad de Investigación Tepalcatepec</t>
+  </si>
+  <si>
+    <t>Yazmín Celeste Godoy Rodriguez</t>
+  </si>
+  <si>
+    <t>Fiscalía Especializada para la Atención de Delitos de Violencia Familiar y de Género</t>
+  </si>
+  <si>
+    <t>Alejandra Escamilla Garcia</t>
+  </si>
+  <si>
+    <t>Incompetencia</t>
   </si>
 </sst>
 </file>
@@ -431,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -475,7 +502,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>1002202328293</v>
+        <v>1008202310826</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -501,7 +528,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>1002202317294</v>
+        <v>1008202329437</v>
       </c>
       <c r="B3">
         <v>2023</v>
@@ -510,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -522,12 +549,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>1002202320306</v>
+        <v>1008202327709</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -536,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -548,12 +575,12 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>1002202326687</v>
+        <v>1008202330389</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -562,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -574,12 +601,12 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>1002202327808</v>
+        <v>1008202308121</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -588,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,12 +627,12 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>1002202327826</v>
+        <v>1008202320500</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -631,7 +658,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>1002202327435</v>
+        <v>1008202308121</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -640,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -652,12 +679,12 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>1002202328004</v>
+        <v>1008202327368</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -683,7 +710,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>1002202328080</v>
+        <v>1008202331671</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -692,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -704,12 +731,12 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>1002202330911</v>
+        <v>1008202220710</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -718,24 +745,24 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>1002202329935</v>
+        <v>1008202329021</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -744,24 +771,24 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>1002202330032</v>
+        <v>1008202303729</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -770,19 +797,2307 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>1008202304727</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>1008202201897</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>1008202304727</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>1008202223104</v>
+      </c>
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>1008202309622</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>1008202223104</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>1008202309622</v>
+      </c>
+      <c r="B20">
+        <v>2023</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>1008202105982</v>
+      </c>
+      <c r="B21">
+        <v>2023</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>1008202323857</v>
+      </c>
+      <c r="B22">
+        <v>2023</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>1008202321476</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>1008202320250</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>1008202323452</v>
+      </c>
+      <c r="B25">
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>1008202328296</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>1008202323452</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>1008202325697</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>1008202329384</v>
+      </c>
+      <c r="B29">
+        <v>2023</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>1008202325697</v>
+      </c>
+      <c r="B30">
+        <v>2023</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>1008202330373</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>1008202328296</v>
+      </c>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3">
+        <v>1008202323206</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
+        <v>1008202320250</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3">
+        <v>1008202323206</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3">
+        <v>1008202328010</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3">
+        <v>1008202210256</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3">
+        <v>1008202325294</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3">
+        <v>1008202325294</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3">
+        <v>1008202240411</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3">
+        <v>1008202331431</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3">
+        <v>1008202242923</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3">
+        <v>1008202329754</v>
+      </c>
+      <c r="B43">
+        <v>2023</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3">
+        <v>1008202303898</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>1008202309819</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>1008202313721</v>
+      </c>
+      <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>1008202323508</v>
+      </c>
+      <c r="B47">
+        <v>2023</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3">
+        <v>1008202323703</v>
+      </c>
+      <c r="B48">
+        <v>2023</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>1008202326597</v>
+      </c>
+      <c r="B49">
+        <v>2023</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>1008202227626</v>
+      </c>
+      <c r="B50">
+        <v>2023</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>1008202227626</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3">
+        <v>1008202234494</v>
+      </c>
+      <c r="B52">
+        <v>2023</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3">
+        <v>1008202234494</v>
+      </c>
+      <c r="B53">
+        <v>2023</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3">
+        <v>1008202309781</v>
+      </c>
+      <c r="B54">
+        <v>2023</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3">
+        <v>1008202309781</v>
+      </c>
+      <c r="B55">
+        <v>2023</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>1008202315708</v>
+      </c>
+      <c r="B56">
+        <v>2023</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3">
+        <v>1008202315708</v>
+      </c>
+      <c r="B57">
+        <v>2023</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3">
+        <v>1008202228230</v>
+      </c>
+      <c r="B58">
+        <v>2023</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3">
+        <v>1008202228230</v>
+      </c>
+      <c r="B59">
+        <v>2023</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3">
+        <v>1008202320768</v>
+      </c>
+      <c r="B60">
+        <v>2023</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3">
+        <v>1008202320768</v>
+      </c>
+      <c r="B61">
+        <v>2023</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3">
+        <v>1008202047236</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3">
+        <v>1008202047236</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="3">
+        <v>1008202213233</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="3">
+        <v>1008202213233</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="3">
+        <v>1008202326758</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="3">
+        <v>1008202326758</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="3">
+        <v>1008202140841</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="3">
+        <v>1008202239488</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3">
+        <v>1008202239488</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="3">
+        <v>1008202209011</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="3">
+        <v>1008202209011</v>
+      </c>
+      <c r="B72">
+        <v>2023</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="3">
+        <v>1008202037508</v>
+      </c>
+      <c r="B73">
+        <v>2023</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="3">
+        <v>1008202038673</v>
+      </c>
+      <c r="B74">
+        <v>2023</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="3">
+        <v>1008202038673</v>
+      </c>
+      <c r="B75">
+        <v>2023</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="3">
+        <v>1008202205872</v>
+      </c>
+      <c r="B76">
+        <v>2023</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="3">
+        <v>1008202205872</v>
+      </c>
+      <c r="B77">
+        <v>2023</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="3">
+        <v>1008202327699</v>
+      </c>
+      <c r="B78">
+        <v>2023</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="3">
+        <v>1008202312148</v>
+      </c>
+      <c r="B79">
+        <v>2023</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="3">
+        <v>1008202330485</v>
+      </c>
+      <c r="B80">
+        <v>2023</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="3">
+        <v>1008202223727</v>
+      </c>
+      <c r="B81">
+        <v>2023</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="3">
+        <v>1008202330436</v>
+      </c>
+      <c r="B82">
+        <v>2023</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="3">
+        <v>1008202329476</v>
+      </c>
+      <c r="B83">
+        <v>2023</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="3">
+        <v>1008202330485</v>
+      </c>
+      <c r="B84">
+        <v>2023</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="3">
+        <v>1008202330485</v>
+      </c>
+      <c r="B85">
+        <v>2023</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="3">
+        <v>1008202329494</v>
+      </c>
+      <c r="B86">
+        <v>2023</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="3">
+        <v>1008202329416</v>
+      </c>
+      <c r="B87">
+        <v>2023</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="3">
+        <v>1008202328797</v>
+      </c>
+      <c r="B88">
+        <v>2023</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="3">
+        <v>1008202332550</v>
+      </c>
+      <c r="B89">
+        <v>2023</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="3">
+        <v>1008202322041</v>
+      </c>
+      <c r="B90">
+        <v>2023</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="3">
+        <v>1008202325983</v>
+      </c>
+      <c r="B91">
+        <v>2023</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="3">
+        <v>1008202326009</v>
+      </c>
+      <c r="B92">
+        <v>2023</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="3">
+        <v>1008202331128</v>
+      </c>
+      <c r="B93">
+        <v>2023</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="3">
+        <v>1008201935643</v>
+      </c>
+      <c r="B94">
+        <v>2023</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="3">
+        <v>1008201935643</v>
+      </c>
+      <c r="B95">
+        <v>2023</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="3">
+        <v>1008202247661</v>
+      </c>
+      <c r="B96">
+        <v>2023</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="3">
+        <v>1008202247661</v>
+      </c>
+      <c r="B97">
+        <v>2023</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="3">
+        <v>1008202331128</v>
+      </c>
+      <c r="B98">
+        <v>2023</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="3">
+        <v>1008202331128</v>
+      </c>
+      <c r="B99">
+        <v>2023</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="3">
+        <v>1008202319458</v>
+      </c>
+      <c r="B100">
+        <v>2023</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="3">
+        <v>1008202330125</v>
+      </c>
+      <c r="B101">
+        <v>2023</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
